--- a/súbory/Potencialove krivky/Potencialove krivky.xlsx
+++ b/súbory/Potencialove krivky/Potencialove krivky.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Používateľ\Documents\UMB\1mgr-ZS\Predikcia štruktúry a vlastností\súbory\Potencialove krivky\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{C16DC427-7A97-4C2D-BB22-8B1A27B0FD32}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EEDEBBB0-2F2F-44FD-8A63-104C9C613FCF}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{A079FC1C-2128-43E9-ABA2-AD8CB61316FE}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="6">
   <si>
     <t>r(H-Cl)/A</t>
   </si>
@@ -45,6 +45,12 @@
   </si>
   <si>
     <t>MOPAC PM7</t>
+  </si>
+  <si>
+    <t>Hf</t>
+  </si>
+  <si>
+    <t>re(exp)</t>
   </si>
 </sst>
 </file>
@@ -656,7 +662,562 @@
 </c:chartSpace>
 </file>
 
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="sk-SK"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:clrMapOvr bg1="lt1" tx1="dk1" bg2="lt2" tx2="dk2" accent1="accent1" accent2="accent2" accent3="accent3" accent4="accent4" accent5="accent5" accent6="accent6" hlink="hlink" folHlink="folHlink"/>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="sk-SK"/>
+              <a:t>PM7</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.80020822397200342"/>
+          <c:y val="0.11574074074074074"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="sk-SK"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.14865161917544223"/>
+          <c:y val="0.14590975613859"/>
+          <c:w val="0.78293160045798493"/>
+          <c:h val="0.70284019075080406"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:scatterChart>
+        <c:scatterStyle val="smoothMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Hárok1!$F$10:$F$24</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="15"/>
+                <c:pt idx="0">
+                  <c:v>0.3</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.4</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.6</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.7</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.8</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.9</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1.1000000000000001</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1.2</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1.3</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1.4</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>1.5</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>1.6</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>1.7</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Hárok1!$G$10:$G$24</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="15"/>
+                <c:pt idx="0">
+                  <c:v>1867407.3</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>59990.16</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4658.5119999999997</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>843.56</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>309.11</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>146.74</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>65.48</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>18.77</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>-6.91</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>-18.398</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>-20.239999999999998</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>-15.69</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>-7.14</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>3.71</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>15.67</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-F239-4EC6-AEFD-3CCAD2383DA2}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="1832725039"/>
+        <c:axId val="1747462991"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="1832725039"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="1.7000000000000002"/>
+          <c:min val="0.2"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="sk-SK" b="0">
+                    <a:solidFill>
+                      <a:sysClr val="windowText" lastClr="000000"/>
+                    </a:solidFill>
+                  </a:rPr>
+                  <a:t>r(A)</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="sk-SK"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="cross"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+            <a:round/>
+            <a:tailEnd type="none"/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="sk-SK"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1747462991"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="1747462991"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="2000000"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="sk-SK">
+                    <a:solidFill>
+                      <a:sysClr val="windowText" lastClr="000000"/>
+                    </a:solidFill>
+                  </a:rPr>
+                  <a:t>kJ/mol</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout>
+            <c:manualLayout>
+              <c:xMode val="edge"/>
+              <c:yMode val="edge"/>
+              <c:x val="3.10091024846858E-3"/>
+              <c:y val="0.10862271666133971"/>
+            </c:manualLayout>
+          </c:layout>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="sk-SK"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="cross"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="bg1"/>
+          </a:solidFill>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="sk-SK"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1832725039"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+    <c:extLst/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="sk-SK"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
 <file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
   <a:schemeClr val="accent2"/>
@@ -1212,6 +1773,522 @@
 </cs:chartStyle>
 </file>
 
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
@@ -1288,15 +2365,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>400050</xdr:colOff>
-      <xdr:row>20</xdr:row>
-      <xdr:rowOff>147637</xdr:rowOff>
+      <xdr:colOff>381000</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>61912</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
-      <xdr:colOff>95250</xdr:colOff>
-      <xdr:row>35</xdr:row>
-      <xdr:rowOff>33337</xdr:rowOff>
+      <xdr:colOff>76200</xdr:colOff>
+      <xdr:row>40</xdr:row>
+      <xdr:rowOff>138112</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -1319,6 +2396,220 @@
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>95248</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>47627</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>467264</xdr:colOff>
+      <xdr:row>40</xdr:row>
+      <xdr:rowOff>80873</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="5" name="Graf 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B98175DD-3FF1-4B7C-97D3-8FC432DB1832}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>539151</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>112143</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>339126</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>83568</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="6" name="Obdĺžnik 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{66A83EDB-E12F-42A0-9AFE-C19F7F1BCECE}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6038491" y="6716742"/>
+          <a:ext cx="411012" cy="348831"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:solidFill>
+            <a:sysClr val="windowText" lastClr="000000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent6"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent6"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="sk-SK" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>348112</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>68832</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>310012</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>97407</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="8" name="Rovná spojovacia šípka 7">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BA4B4078-B5CC-43C2-ABFD-7653349BEEFA}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="6458489" y="5918620"/>
+          <a:ext cx="572938" cy="783386"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>366623</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>77055</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>585697</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>38955</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="9" name="Obrázok 8">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B63486BE-010D-4671-A50D-C42799ADBD60}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="7088038" y="5549437"/>
+          <a:ext cx="2052187" cy="528009"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
@@ -1619,12 +2910,298 @@
 </a:theme>
 </file>
 
+<file path=xl/theme/themeOverride1.xml><?xml version="1.0" encoding="utf-8"?>
+<a:themeOverride xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <a:clrScheme name="Office">
+    <a:dk1>
+      <a:sysClr val="windowText" lastClr="000000"/>
+    </a:dk1>
+    <a:lt1>
+      <a:sysClr val="window" lastClr="FFFFFF"/>
+    </a:lt1>
+    <a:dk2>
+      <a:srgbClr val="44546A"/>
+    </a:dk2>
+    <a:lt2>
+      <a:srgbClr val="E7E6E6"/>
+    </a:lt2>
+    <a:accent1>
+      <a:srgbClr val="4472C4"/>
+    </a:accent1>
+    <a:accent2>
+      <a:srgbClr val="ED7D31"/>
+    </a:accent2>
+    <a:accent3>
+      <a:srgbClr val="A5A5A5"/>
+    </a:accent3>
+    <a:accent4>
+      <a:srgbClr val="FFC000"/>
+    </a:accent4>
+    <a:accent5>
+      <a:srgbClr val="5B9BD5"/>
+    </a:accent5>
+    <a:accent6>
+      <a:srgbClr val="70AD47"/>
+    </a:accent6>
+    <a:hlink>
+      <a:srgbClr val="0563C1"/>
+    </a:hlink>
+    <a:folHlink>
+      <a:srgbClr val="954F72"/>
+    </a:folHlink>
+  </a:clrScheme>
+  <a:fontScheme name="Office">
+    <a:majorFont>
+      <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+      <a:ea typeface=""/>
+      <a:cs typeface=""/>
+      <a:font script="Jpan" typeface="游ゴシック Light"/>
+      <a:font script="Hang" typeface="맑은 고딕"/>
+      <a:font script="Hans" typeface="等线 Light"/>
+      <a:font script="Hant" typeface="新細明體"/>
+      <a:font script="Arab" typeface="Times New Roman"/>
+      <a:font script="Hebr" typeface="Times New Roman"/>
+      <a:font script="Thai" typeface="Tahoma"/>
+      <a:font script="Ethi" typeface="Nyala"/>
+      <a:font script="Beng" typeface="Vrinda"/>
+      <a:font script="Gujr" typeface="Shruti"/>
+      <a:font script="Khmr" typeface="MoolBoran"/>
+      <a:font script="Knda" typeface="Tunga"/>
+      <a:font script="Guru" typeface="Raavi"/>
+      <a:font script="Cans" typeface="Euphemia"/>
+      <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+      <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+      <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+      <a:font script="Thaa" typeface="MV Boli"/>
+      <a:font script="Deva" typeface="Mangal"/>
+      <a:font script="Telu" typeface="Gautami"/>
+      <a:font script="Taml" typeface="Latha"/>
+      <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+      <a:font script="Orya" typeface="Kalinga"/>
+      <a:font script="Mlym" typeface="Kartika"/>
+      <a:font script="Laoo" typeface="DokChampa"/>
+      <a:font script="Sinh" typeface="Iskoola Pota"/>
+      <a:font script="Mong" typeface="Mongolian Baiti"/>
+      <a:font script="Viet" typeface="Times New Roman"/>
+      <a:font script="Uigh" typeface="Microsoft Uighur"/>
+      <a:font script="Geor" typeface="Sylfaen"/>
+      <a:font script="Armn" typeface="Arial"/>
+      <a:font script="Bugi" typeface="Leelawadee UI"/>
+      <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+      <a:font script="Java" typeface="Javanese Text"/>
+      <a:font script="Lisu" typeface="Segoe UI"/>
+      <a:font script="Mymr" typeface="Myanmar Text"/>
+      <a:font script="Nkoo" typeface="Ebrima"/>
+      <a:font script="Olck" typeface="Nirmala UI"/>
+      <a:font script="Osma" typeface="Ebrima"/>
+      <a:font script="Phag" typeface="Phagspa"/>
+      <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+      <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+      <a:font script="Syre" typeface="Estrangelo Edessa"/>
+      <a:font script="Sora" typeface="Nirmala UI"/>
+      <a:font script="Tale" typeface="Microsoft Tai Le"/>
+      <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+      <a:font script="Tfng" typeface="Ebrima"/>
+    </a:majorFont>
+    <a:minorFont>
+      <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+      <a:ea typeface=""/>
+      <a:cs typeface=""/>
+      <a:font script="Jpan" typeface="游ゴシック"/>
+      <a:font script="Hang" typeface="맑은 고딕"/>
+      <a:font script="Hans" typeface="等线"/>
+      <a:font script="Hant" typeface="新細明體"/>
+      <a:font script="Arab" typeface="Arial"/>
+      <a:font script="Hebr" typeface="Arial"/>
+      <a:font script="Thai" typeface="Tahoma"/>
+      <a:font script="Ethi" typeface="Nyala"/>
+      <a:font script="Beng" typeface="Vrinda"/>
+      <a:font script="Gujr" typeface="Shruti"/>
+      <a:font script="Khmr" typeface="DaunPenh"/>
+      <a:font script="Knda" typeface="Tunga"/>
+      <a:font script="Guru" typeface="Raavi"/>
+      <a:font script="Cans" typeface="Euphemia"/>
+      <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+      <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+      <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+      <a:font script="Thaa" typeface="MV Boli"/>
+      <a:font script="Deva" typeface="Mangal"/>
+      <a:font script="Telu" typeface="Gautami"/>
+      <a:font script="Taml" typeface="Latha"/>
+      <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+      <a:font script="Orya" typeface="Kalinga"/>
+      <a:font script="Mlym" typeface="Kartika"/>
+      <a:font script="Laoo" typeface="DokChampa"/>
+      <a:font script="Sinh" typeface="Iskoola Pota"/>
+      <a:font script="Mong" typeface="Mongolian Baiti"/>
+      <a:font script="Viet" typeface="Arial"/>
+      <a:font script="Uigh" typeface="Microsoft Uighur"/>
+      <a:font script="Geor" typeface="Sylfaen"/>
+      <a:font script="Armn" typeface="Arial"/>
+      <a:font script="Bugi" typeface="Leelawadee UI"/>
+      <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+      <a:font script="Java" typeface="Javanese Text"/>
+      <a:font script="Lisu" typeface="Segoe UI"/>
+      <a:font script="Mymr" typeface="Myanmar Text"/>
+      <a:font script="Nkoo" typeface="Ebrima"/>
+      <a:font script="Olck" typeface="Nirmala UI"/>
+      <a:font script="Osma" typeface="Ebrima"/>
+      <a:font script="Phag" typeface="Phagspa"/>
+      <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+      <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+      <a:font script="Syre" typeface="Estrangelo Edessa"/>
+      <a:font script="Sora" typeface="Nirmala UI"/>
+      <a:font script="Tale" typeface="Microsoft Tai Le"/>
+      <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+      <a:font script="Tfng" typeface="Ebrima"/>
+    </a:minorFont>
+  </a:fontScheme>
+  <a:fmtScheme name="Office">
+    <a:fillStyleLst>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:gradFill rotWithShape="1">
+        <a:gsLst>
+          <a:gs pos="0">
+            <a:schemeClr val="phClr">
+              <a:lumMod val="110000"/>
+              <a:satMod val="105000"/>
+              <a:tint val="67000"/>
+            </a:schemeClr>
+          </a:gs>
+          <a:gs pos="50000">
+            <a:schemeClr val="phClr">
+              <a:lumMod val="105000"/>
+              <a:satMod val="103000"/>
+              <a:tint val="73000"/>
+            </a:schemeClr>
+          </a:gs>
+          <a:gs pos="100000">
+            <a:schemeClr val="phClr">
+              <a:lumMod val="105000"/>
+              <a:satMod val="109000"/>
+              <a:tint val="81000"/>
+            </a:schemeClr>
+          </a:gs>
+        </a:gsLst>
+        <a:lin ang="5400000" scaled="0"/>
+      </a:gradFill>
+      <a:gradFill rotWithShape="1">
+        <a:gsLst>
+          <a:gs pos="0">
+            <a:schemeClr val="phClr">
+              <a:satMod val="103000"/>
+              <a:lumMod val="102000"/>
+              <a:tint val="94000"/>
+            </a:schemeClr>
+          </a:gs>
+          <a:gs pos="50000">
+            <a:schemeClr val="phClr">
+              <a:satMod val="110000"/>
+              <a:lumMod val="100000"/>
+              <a:shade val="100000"/>
+            </a:schemeClr>
+          </a:gs>
+          <a:gs pos="100000">
+            <a:schemeClr val="phClr">
+              <a:lumMod val="99000"/>
+              <a:satMod val="120000"/>
+              <a:shade val="78000"/>
+            </a:schemeClr>
+          </a:gs>
+        </a:gsLst>
+        <a:lin ang="5400000" scaled="0"/>
+      </a:gradFill>
+    </a:fillStyleLst>
+    <a:lnStyleLst>
+      <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="solid"/>
+        <a:miter lim="800000"/>
+      </a:ln>
+      <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="solid"/>
+        <a:miter lim="800000"/>
+      </a:ln>
+      <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="solid"/>
+        <a:miter lim="800000"/>
+      </a:ln>
+    </a:lnStyleLst>
+    <a:effectStyleLst>
+      <a:effectStyle>
+        <a:effectLst/>
+      </a:effectStyle>
+      <a:effectStyle>
+        <a:effectLst/>
+      </a:effectStyle>
+      <a:effectStyle>
+        <a:effectLst>
+          <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+            <a:srgbClr val="000000">
+              <a:alpha val="63000"/>
+            </a:srgbClr>
+          </a:outerShdw>
+        </a:effectLst>
+      </a:effectStyle>
+    </a:effectStyleLst>
+    <a:bgFillStyleLst>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:solidFill>
+        <a:schemeClr val="phClr">
+          <a:tint val="95000"/>
+          <a:satMod val="170000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:gradFill rotWithShape="1">
+        <a:gsLst>
+          <a:gs pos="0">
+            <a:schemeClr val="phClr">
+              <a:tint val="93000"/>
+              <a:satMod val="150000"/>
+              <a:shade val="98000"/>
+              <a:lumMod val="102000"/>
+            </a:schemeClr>
+          </a:gs>
+          <a:gs pos="50000">
+            <a:schemeClr val="phClr">
+              <a:tint val="98000"/>
+              <a:satMod val="130000"/>
+              <a:shade val="90000"/>
+              <a:lumMod val="103000"/>
+            </a:schemeClr>
+          </a:gs>
+          <a:gs pos="100000">
+            <a:schemeClr val="phClr">
+              <a:shade val="63000"/>
+              <a:satMod val="120000"/>
+            </a:schemeClr>
+          </a:gs>
+        </a:gsLst>
+        <a:lin ang="5400000" scaled="0"/>
+      </a:gradFill>
+    </a:bgFillStyleLst>
+  </a:fmtScheme>
+</a:themeOverride>
+</file>
+
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B5800985-6BED-4B78-908A-F38C94B3E03D}">
-  <dimension ref="C7:G20"/>
+  <dimension ref="C7:G26"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="F9" sqref="F9"/>
+    <sheetView tabSelected="1" zoomScale="106" zoomScaleNormal="106" workbookViewId="0">
+      <selection activeCell="S35" sqref="S35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1652,6 +3229,12 @@
       <c r="D9" t="s">
         <v>1</v>
       </c>
+      <c r="F9" t="s">
+        <v>0</v>
+      </c>
+      <c r="G9" t="s">
+        <v>4</v>
+      </c>
     </row>
     <row r="10" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C10">
@@ -1660,6 +3243,12 @@
       <c r="D10">
         <v>997</v>
       </c>
+      <c r="F10">
+        <v>0.3</v>
+      </c>
+      <c r="G10">
+        <v>1867407.3</v>
+      </c>
     </row>
     <row r="11" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C11">
@@ -1668,6 +3257,12 @@
       <c r="D11">
         <v>684.56</v>
       </c>
+      <c r="F11">
+        <v>0.4</v>
+      </c>
+      <c r="G11">
+        <v>59990.16</v>
+      </c>
     </row>
     <row r="12" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C12">
@@ -1676,6 +3271,12 @@
       <c r="D12">
         <v>295.85000000000002</v>
       </c>
+      <c r="F12">
+        <v>0.5</v>
+      </c>
+      <c r="G12">
+        <v>4658.5119999999997</v>
+      </c>
     </row>
     <row r="13" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C13">
@@ -1684,6 +3285,12 @@
       <c r="D13">
         <v>125.99</v>
       </c>
+      <c r="F13">
+        <v>0.6</v>
+      </c>
+      <c r="G13">
+        <v>843.56</v>
+      </c>
     </row>
     <row r="14" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C14">
@@ -1692,6 +3299,12 @@
       <c r="D14">
         <v>27.55</v>
       </c>
+      <c r="F14">
+        <v>0.7</v>
+      </c>
+      <c r="G14">
+        <v>309.11</v>
+      </c>
     </row>
     <row r="15" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C15">
@@ -1700,6 +3313,12 @@
       <c r="D15">
         <v>5.1100000000000003</v>
       </c>
+      <c r="F15">
+        <v>0.8</v>
+      </c>
+      <c r="G15">
+        <v>146.74</v>
+      </c>
     </row>
     <row r="16" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C16">
@@ -1708,37 +3327,107 @@
       <c r="D16">
         <v>0</v>
       </c>
+      <c r="F16">
+        <v>0.9</v>
+      </c>
+      <c r="G16">
+        <v>65.48</v>
+      </c>
     </row>
-    <row r="17" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="17" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C17">
         <v>1.4</v>
       </c>
       <c r="D17">
         <v>0.53</v>
       </c>
+      <c r="F17">
+        <v>1</v>
+      </c>
+      <c r="G17">
+        <v>18.77</v>
+      </c>
     </row>
-    <row r="18" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="18" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C18">
         <v>1.5</v>
       </c>
       <c r="D18">
         <v>13.81</v>
       </c>
+      <c r="F18">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="G18">
+        <v>-6.91</v>
+      </c>
     </row>
-    <row r="19" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="19" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C19">
         <v>1.8</v>
       </c>
       <c r="D19">
         <v>160.77000000000001</v>
       </c>
+      <c r="F19">
+        <v>1.2</v>
+      </c>
+      <c r="G19">
+        <v>-18.398</v>
+      </c>
     </row>
-    <row r="20" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="20" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C20">
         <v>2</v>
       </c>
       <c r="D20">
         <v>348.03</v>
+      </c>
+      <c r="F20">
+        <v>1.3</v>
+      </c>
+      <c r="G20">
+        <v>-20.239999999999998</v>
+      </c>
+    </row>
+    <row r="21" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="F21">
+        <v>1.4</v>
+      </c>
+      <c r="G21">
+        <v>-15.69</v>
+      </c>
+    </row>
+    <row r="22" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="F22">
+        <v>1.5</v>
+      </c>
+      <c r="G22">
+        <v>-7.14</v>
+      </c>
+    </row>
+    <row r="23" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="F23">
+        <v>1.6</v>
+      </c>
+      <c r="G23">
+        <v>3.71</v>
+      </c>
+    </row>
+    <row r="24" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="F24">
+        <v>1.7</v>
+      </c>
+      <c r="G24">
+        <v>15.67</v>
+      </c>
+    </row>
+    <row r="26" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C26" t="s">
+        <v>5</v>
+      </c>
+      <c r="D26">
+        <v>1.2749999999999999</v>
       </c>
     </row>
   </sheetData>

--- a/súbory/Potencialove krivky/Potencialove krivky.xlsx
+++ b/súbory/Potencialove krivky/Potencialove krivky.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Používateľ\Documents\UMB\1mgr-ZS\Predikcia štruktúry a vlastností\súbory\Potencialove krivky\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EEDEBBB0-2F2F-44FD-8A63-104C9C613FCF}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{84507329-F08E-45EB-9729-91762AF2711D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{A079FC1C-2128-43E9-ABA2-AD8CB61316FE}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="7">
   <si>
     <t>r(H-Cl)/A</t>
   </si>
@@ -50,7 +50,10 @@
     <t>Hf</t>
   </si>
   <si>
-    <t>re(exp)</t>
+    <t>re</t>
+  </si>
+  <si>
+    <t>re exp</t>
   </si>
 </sst>
 </file>
@@ -3198,10 +3201,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B5800985-6BED-4B78-908A-F38C94B3E03D}">
-  <dimension ref="C7:G26"/>
+  <dimension ref="C7:N26"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="106" zoomScaleNormal="106" workbookViewId="0">
-      <selection activeCell="S35" sqref="S35"/>
+    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="106" zoomScaleNormal="106" workbookViewId="0">
+      <selection activeCell="D27" sqref="D27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3334,7 +3337,7 @@
         <v>65.48</v>
       </c>
     </row>
-    <row r="17" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="17" spans="3:14" x14ac:dyDescent="0.25">
       <c r="C17">
         <v>1.4</v>
       </c>
@@ -3348,7 +3351,7 @@
         <v>18.77</v>
       </c>
     </row>
-    <row r="18" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="18" spans="3:14" x14ac:dyDescent="0.25">
       <c r="C18">
         <v>1.5</v>
       </c>
@@ -3362,7 +3365,7 @@
         <v>-6.91</v>
       </c>
     </row>
-    <row r="19" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="19" spans="3:14" x14ac:dyDescent="0.25">
       <c r="C19">
         <v>1.8</v>
       </c>
@@ -3376,7 +3379,7 @@
         <v>-18.398</v>
       </c>
     </row>
-    <row r="20" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="20" spans="3:14" x14ac:dyDescent="0.25">
       <c r="C20">
         <v>2</v>
       </c>
@@ -3390,7 +3393,7 @@
         <v>-20.239999999999998</v>
       </c>
     </row>
-    <row r="21" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="21" spans="3:14" x14ac:dyDescent="0.25">
       <c r="F21">
         <v>1.4</v>
       </c>
@@ -3398,7 +3401,7 @@
         <v>-15.69</v>
       </c>
     </row>
-    <row r="22" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="22" spans="3:14" x14ac:dyDescent="0.25">
       <c r="F22">
         <v>1.5</v>
       </c>
@@ -3406,7 +3409,7 @@
         <v>-7.14</v>
       </c>
     </row>
-    <row r="23" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="23" spans="3:14" x14ac:dyDescent="0.25">
       <c r="F23">
         <v>1.6</v>
       </c>
@@ -3414,7 +3417,7 @@
         <v>3.71</v>
       </c>
     </row>
-    <row r="24" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="24" spans="3:14" x14ac:dyDescent="0.25">
       <c r="F24">
         <v>1.7</v>
       </c>
@@ -3422,11 +3425,20 @@
         <v>15.67</v>
       </c>
     </row>
-    <row r="26" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="26" spans="3:14" x14ac:dyDescent="0.25">
       <c r="C26" t="s">
         <v>5</v>
       </c>
       <c r="D26">
+        <v>1.3759999999999999</v>
+      </c>
+      <c r="G26">
+        <v>1.272</v>
+      </c>
+      <c r="M26" t="s">
+        <v>6</v>
+      </c>
+      <c r="N26">
         <v>1.2749999999999999</v>
       </c>
     </row>

--- a/súbory/Potencialove krivky/Potencialove krivky.xlsx
+++ b/súbory/Potencialove krivky/Potencialove krivky.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Používateľ\Documents\UMB\1mgr-ZS\Predikcia štruktúry a vlastností\súbory\Potencialove krivky\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{84507329-F08E-45EB-9729-91762AF2711D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1C6235DA-3E09-415C-B637-00ACCCFD9BE7}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{A079FC1C-2128-43E9-ABA2-AD8CB61316FE}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="12">
   <si>
     <t>r(H-Cl)/A</t>
   </si>
@@ -47,21 +47,159 @@
     <t>MOPAC PM7</t>
   </si>
   <si>
-    <t>Hf</t>
+    <r>
+      <t>r</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="subscript"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="238"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>e</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="238"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> (exp)/A</t>
+    </r>
   </si>
   <si>
-    <t>re</t>
+    <r>
+      <t>r</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="subscript"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="238"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>e</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="238"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>/A</t>
+    </r>
   </si>
   <si>
-    <t>re exp</t>
+    <r>
+      <t>H</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="subscript"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="238"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>f</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>B</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="subscript"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="238"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>e</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="238"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> rotačná konštanta</t>
+    </r>
+  </si>
+  <si>
+    <t>Vypočítané</t>
+  </si>
+  <si>
+    <t>Experimentálne</t>
+  </si>
+  <si>
+    <t>NIST</t>
+  </si>
+  <si>
+    <r>
+      <t>ω</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="subscript"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="238"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">e </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="238"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>vibračná konštanta</t>
+    </r>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="238"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <vertAlign val="subscript"/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -78,10 +216,109 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="10">
     <border>
       <left/>
       <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
       <top/>
       <bottom/>
       <diagonal/>
@@ -90,11 +327,32 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
+    <xf numFmtId="11" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="11" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normálna" xfId="0" builtinId="0"/>
@@ -710,8 +968,8 @@
         <c:manualLayout>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.80020822397200342"/>
-          <c:y val="0.11574074074074074"/>
+          <c:x val="0.87845810261063106"/>
+          <c:y val="3.9780418192319131E-2"/>
         </c:manualLayout>
       </c:layout>
       <c:overlay val="0"/>
@@ -832,7 +1090,7 @@
             <c:numRef>
               <c:f>Hárok1!$G$10:$G$24</c:f>
               <c:numCache>
-                <c:formatCode>General</c:formatCode>
+                <c:formatCode>0.00E+00</c:formatCode>
                 <c:ptCount val="15"/>
                 <c:pt idx="0">
                   <c:v>1867407.3</c:v>
@@ -904,7 +1162,7 @@
         <c:axId val="1832725039"/>
         <c:scaling>
           <c:orientation val="minMax"/>
-          <c:max val="1.7000000000000002"/>
+          <c:max val="1.8"/>
           <c:min val="0.2"/>
         </c:scaling>
         <c:delete val="0"/>
@@ -943,8 +1201,30 @@
                       <a:sysClr val="windowText" lastClr="000000"/>
                     </a:solidFill>
                   </a:rPr>
-                  <a:t>r(A)</a:t>
+                  <a:t>r</a:t>
                 </a:r>
+                <a:r>
+                  <a:rPr lang="sk-SK" b="0" baseline="0">
+                    <a:solidFill>
+                      <a:sysClr val="windowText" lastClr="000000"/>
+                    </a:solidFill>
+                  </a:rPr>
+                  <a:t> </a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="sk-SK" sz="1000" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                    <a:solidFill>
+                      <a:sysClr val="windowText" lastClr="000000"/>
+                    </a:solidFill>
+                    <a:effectLst/>
+                  </a:rPr>
+                  <a:t>[A]</a:t>
+                </a:r>
+                <a:endParaRPr lang="sk-SK" b="0">
+                  <a:solidFill>
+                    <a:sysClr val="windowText" lastClr="000000"/>
+                  </a:solidFill>
+                </a:endParaRPr>
               </a:p>
             </c:rich>
           </c:tx>
@@ -1018,6 +1298,7 @@
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="2000000"/>
+          <c:min val="-20"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
@@ -1064,8 +1345,8 @@
             <c:manualLayout>
               <c:xMode val="edge"/>
               <c:yMode val="edge"/>
-              <c:x val="3.10091024846858E-3"/>
-              <c:y val="0.10862271666133971"/>
+              <c:x val="5.7757548033707633E-3"/>
+              <c:y val="0.15135033092406408"/>
             </c:manualLayout>
           </c:layout>
           <c:overlay val="0"/>
@@ -1097,7 +1378,7 @@
             </a:p>
           </c:txPr>
         </c:title>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:numFmt formatCode="0.00E+00" sourceLinked="1"/>
         <c:majorTickMark val="cross"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -1177,6 +1458,7 @@
     <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
     <c:pageSetup/>
   </c:printSettings>
+  <c:userShapes r:id="rId4"/>
 </c:chartSpace>
 </file>
 
@@ -2297,15 +2579,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>5</xdr:col>
-      <xdr:colOff>457200</xdr:colOff>
+      <xdr:colOff>457199</xdr:colOff>
       <xdr:row>0</xdr:row>
-      <xdr:rowOff>57150</xdr:rowOff>
+      <xdr:rowOff>57149</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>12</xdr:col>
-      <xdr:colOff>200025</xdr:colOff>
-      <xdr:row>4</xdr:row>
-      <xdr:rowOff>38100</xdr:rowOff>
+      <xdr:colOff>260589</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>98843</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -2320,14 +2602,17 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3505200" y="57150"/>
-          <a:ext cx="4010025" cy="742950"/>
+          <a:off x="3548331" y="57149"/>
+          <a:ext cx="5689121" cy="1173911"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
         </a:prstGeom>
         <a:solidFill>
-          <a:schemeClr val="lt1"/>
+          <a:schemeClr val="accent6">
+            <a:lumMod val="20000"/>
+            <a:lumOff val="80000"/>
+          </a:schemeClr>
         </a:solidFill>
         <a:ln w="9525" cmpd="sng">
           <a:solidFill>
@@ -2360,6 +2645,25 @@
             <a:rPr lang="sk-SK" sz="1100"/>
             <a:t>Potenciálové krivky</a:t>
           </a:r>
+          <a:br>
+            <a:rPr lang="sk-SK" sz="1100"/>
+          </a:br>
+          <a:r>
+            <a:rPr lang="sk-SK" sz="1100"/>
+            <a:t>Boli zostrojené potenciálové krivky HCl pomocou Avogadro (UFF) a MOPAC</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="sk-SK" sz="1100" baseline="0"/>
+            <a:t> (PM7). Pomocou výpočtov MOPAC boli získané a vizualizované aj MO HOMO a MO LUMO. </a:t>
+          </a:r>
+          <a:br>
+            <a:rPr lang="sk-SK" sz="1100" baseline="0"/>
+          </a:br>
+          <a:r>
+            <a:rPr lang="sk-SK" sz="1100" baseline="0"/>
+            <a:t>Ďalšími výpočtami v MOPAC boli získané údaje: rotačná konštanta a vibračná konštanta HCl a porovnané s experimentálnymi údajmi z https://cccbdb.nist.gov/exp2x.asp a https://webbook.nist.gov/cgi/cbook.cgi?ID=7647-01-0.</a:t>
+          </a:r>
+          <a:endParaRPr lang="sk-SK" sz="1100"/>
         </a:p>
       </xdr:txBody>
     </xdr:sp>
@@ -2404,15 +2708,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>8</xdr:col>
-      <xdr:colOff>95248</xdr:colOff>
+      <xdr:colOff>140178</xdr:colOff>
       <xdr:row>26</xdr:row>
-      <xdr:rowOff>47627</xdr:rowOff>
+      <xdr:rowOff>65599</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>467264</xdr:colOff>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>116816</xdr:colOff>
       <xdr:row>40</xdr:row>
-      <xdr:rowOff>80873</xdr:rowOff>
+      <xdr:rowOff>152760</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -2437,142 +2741,25 @@
     </xdr:graphicFrame>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>539151</xdr:colOff>
-      <xdr:row>35</xdr:row>
-      <xdr:rowOff>112143</xdr:rowOff>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>89858</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>17972</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>339126</xdr:colOff>
-      <xdr:row>37</xdr:row>
-      <xdr:rowOff>83568</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="6" name="Obdĺžnik 5">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{66A83EDB-E12F-42A0-9AFE-C19F7F1BCECE}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="6038491" y="6716742"/>
-          <a:ext cx="411012" cy="348831"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:ln>
-          <a:solidFill>
-            <a:sysClr val="windowText" lastClr="000000"/>
-          </a:solidFill>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent6"/>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="lt1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent6"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="dk1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:endParaRPr lang="sk-SK" sz="1100"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>348112</xdr:colOff>
-      <xdr:row>31</xdr:row>
-      <xdr:rowOff>68832</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>310012</xdr:colOff>
-      <xdr:row>35</xdr:row>
-      <xdr:rowOff>97407</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="8" name="Rovná spojovacia šípka 7">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BA4B4078-B5CC-43C2-ABFD-7653349BEEFA}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvCxnSpPr/>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm flipV="1">
-          <a:off x="6458489" y="5918620"/>
-          <a:ext cx="572938" cy="783386"/>
-        </a:xfrm>
-        <a:prstGeom prst="straightConnector1">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln>
-          <a:tailEnd type="triangle"/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="dk1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="dk1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="dk1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>366623</xdr:colOff>
-      <xdr:row>29</xdr:row>
-      <xdr:rowOff>77055</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>585697</xdr:colOff>
-      <xdr:row>32</xdr:row>
-      <xdr:rowOff>38955</xdr:rowOff>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>418425</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>125803</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="9" name="Obrázok 8">
+        <xdr:cNvPr id="10" name="Obrázok 9">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B63486BE-010D-4671-A50D-C42799ADBD60}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{38B41EBF-17E9-4EB9-BB76-1230185C1731}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2595,8 +2782,8 @@
       </xdr:blipFill>
       <xdr:spPr bwMode="auto">
         <a:xfrm>
-          <a:off x="7088038" y="5549437"/>
-          <a:ext cx="2052187" cy="528009"/>
+          <a:off x="8033349" y="17972"/>
+          <a:ext cx="3383756" cy="2480095"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2615,7 +2802,376 @@
     </xdr:pic>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>593066</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>422335</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>125802</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="4" name="BlokTextu 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7E369852-FD24-47CA-BCC8-3BE7C35F7ADF}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7925519" y="0"/>
+          <a:ext cx="3495495" cy="503208"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="sk-SK" sz="1100"/>
+            <a:t>MO LUMO: Protiväzbový sigma</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="sk-SK" sz="1100" baseline="0"/>
+            <a:t> (kombinácia Cl p orbitál a H 1s orbitál)</a:t>
+          </a:r>
+          <a:endParaRPr lang="sk-SK" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>188703</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>161745</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>467265</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>201705</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="11" name="Obrázok 10">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{02DF103A-6447-448F-BA72-C7BF3A09B230}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="8743231" y="2614882"/>
+          <a:ext cx="2111675" cy="2115691"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>575093</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>53914</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>62901</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>152759</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="7" name="BlokTextu 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BCFB5061-D76B-48FB-A42E-112ABCCE7D10}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8518584" y="2507051"/>
+          <a:ext cx="2542996" cy="287548"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="sk-SK" sz="1100"/>
+            <a:t>MO</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="sk-SK" sz="1100" baseline="0"/>
+            <a:t> HOMO: neväzbový p Cl orbitál</a:t>
+          </a:r>
+          <a:endParaRPr lang="sk-SK" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>323491</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>80875</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>71887</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>107830</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="14" name="Rovná spojovacia šípka 13">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2D117443-9776-4227-A00D-A70386914FC0}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1" flipV="1">
+          <a:off x="7790732" y="6308068"/>
+          <a:ext cx="359433" cy="781767"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:solidFill>
+            <a:sysClr val="windowText" lastClr="000000"/>
+          </a:solidFill>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:userShapes xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart">
+  <cdr:relSizeAnchor xmlns:cdr="http://schemas.openxmlformats.org/drawingml/2006/chartDrawing">
+    <cdr:from>
+      <cdr:x>0.39364</cdr:x>
+      <cdr:y>0.11421</cdr:y>
+    </cdr:from>
+    <cdr:to>
+      <cdr:x>0.9065</cdr:x>
+      <cdr:y>0.57675</cdr:y>
+    </cdr:to>
+    <cdr:pic>
+      <cdr:nvPicPr>
+        <cdr:cNvPr id="2" name="chart">
+          <a:extLst xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EF568712-AB04-4696-B341-BB51BF0F367A}"/>
+            </a:ext>
+          </a:extLst>
+        </cdr:cNvPr>
+        <cdr:cNvPicPr>
+          <a:picLocks xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" noChangeAspect="1"/>
+        </cdr:cNvPicPr>
+      </cdr:nvPicPr>
+      <cdr:blipFill>
+        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:fillRect/>
+        </a:stretch>
+      </cdr:blipFill>
+      <cdr:spPr>
+        <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:off x="1869058" y="305518"/>
+          <a:ext cx="2435105" cy="1237350"/>
+        </a:xfrm>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </cdr:spPr>
+    </cdr:pic>
+  </cdr:relSizeAnchor>
+  <cdr:relSizeAnchor xmlns:cdr="http://schemas.openxmlformats.org/drawingml/2006/chartDrawing">
+    <cdr:from>
+      <cdr:x>0.58365</cdr:x>
+      <cdr:y>0.78502</cdr:y>
+    </cdr:from>
+    <cdr:to>
+      <cdr:x>0.85806</cdr:x>
+      <cdr:y>0.9261</cdr:y>
+    </cdr:to>
+    <cdr:sp macro="" textlink="">
+      <cdr:nvSpPr>
+        <cdr:cNvPr id="3" name="Obdĺžnik 2">
+          <a:extLst xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C20A90EA-08B0-4C09-B11C-DCA154D7C252}"/>
+            </a:ext>
+          </a:extLst>
+        </cdr:cNvPr>
+        <cdr:cNvSpPr/>
+      </cdr:nvSpPr>
+      <cdr:spPr>
+        <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:off x="2771238" y="2099990"/>
+          <a:ext cx="1302948" cy="377406"/>
+        </a:xfrm>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
+        <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:solidFill>
+            <a:sysClr val="windowText" lastClr="000000"/>
+          </a:solidFill>
+        </a:ln>
+      </cdr:spPr>
+      <cdr:style>
+        <a:lnRef xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" idx="2">
+          <a:schemeClr val="accent6"/>
+        </a:lnRef>
+        <a:fillRef xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" idx="0">
+          <a:schemeClr val="accent6"/>
+        </a:effectRef>
+        <a:fontRef xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </cdr:style>
+      <cdr:txBody>
+        <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" vertOverflow="clip"/>
+        <a:lstStyle xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
+        <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:endParaRPr lang="sk-SK"/>
+        </a:p>
+      </cdr:txBody>
+    </cdr:sp>
+  </cdr:relSizeAnchor>
+</c:userShapes>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -3201,245 +3757,287 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B5800985-6BED-4B78-908A-F38C94B3E03D}">
-  <dimension ref="C7:N26"/>
+  <dimension ref="C7:K26"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="106" zoomScaleNormal="106" workbookViewId="0">
-      <selection activeCell="D27" sqref="D27"/>
+    <sheetView tabSelected="1" topLeftCell="A10" zoomScale="106" zoomScaleNormal="106" workbookViewId="0">
+      <selection activeCell="J44" sqref="J44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="3" max="3" width="9.7109375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="11.140625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="21.5703125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="12.85546875" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="15.28515625" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="7" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C7" s="1" t="s">
+    <row r="7" spans="3:11" x14ac:dyDescent="0.25">
+      <c r="C7" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="D7" s="1"/>
-      <c r="F7" s="1" t="s">
+      <c r="D7" s="10"/>
+      <c r="F7" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="G7" s="1"/>
+      <c r="G7" s="10"/>
     </row>
-    <row r="8" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C8" s="1"/>
-      <c r="D8" s="1"/>
-      <c r="F8" s="1"/>
-      <c r="G8" s="1"/>
+    <row r="8" spans="3:11" x14ac:dyDescent="0.25">
+      <c r="C8" s="11"/>
+      <c r="D8" s="12"/>
+      <c r="F8" s="11"/>
+      <c r="G8" s="12"/>
+      <c r="J8" t="s">
+        <v>8</v>
+      </c>
+      <c r="K8" t="s">
+        <v>9</v>
+      </c>
     </row>
-    <row r="9" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C9" t="s">
+    <row r="9" spans="3:11" ht="18" x14ac:dyDescent="0.35">
+      <c r="C9" s="13" t="s">
         <v>0</v>
       </c>
-      <c r="D9" t="s">
+      <c r="D9" s="14" t="s">
         <v>1</v>
       </c>
-      <c r="F9" t="s">
+      <c r="F9" s="13" t="s">
         <v>0</v>
       </c>
-      <c r="G9" t="s">
+      <c r="G9" s="14" t="s">
+        <v>6</v>
+      </c>
+      <c r="J9" t="s">
+        <v>3</v>
+      </c>
+      <c r="K9" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="10" spans="3:11" ht="18" x14ac:dyDescent="0.35">
+      <c r="C10" s="13">
+        <v>0.3</v>
+      </c>
+      <c r="D10" s="14">
+        <v>997</v>
+      </c>
+      <c r="F10" s="13">
+        <v>0.3</v>
+      </c>
+      <c r="G10" s="15">
+        <v>1867407.3</v>
+      </c>
+      <c r="I10" t="s">
+        <v>7</v>
+      </c>
+      <c r="J10">
+        <v>10.6311</v>
+      </c>
+      <c r="K10">
+        <v>10.593400000000001</v>
+      </c>
+    </row>
+    <row r="11" spans="3:11" ht="18" x14ac:dyDescent="0.35">
+      <c r="C11" s="13">
+        <v>0.5</v>
+      </c>
+      <c r="D11" s="14">
+        <v>684.56</v>
+      </c>
+      <c r="F11" s="13">
+        <v>0.4</v>
+      </c>
+      <c r="G11" s="15">
+        <v>59990.16</v>
+      </c>
+      <c r="I11" t="s">
+        <v>11</v>
+      </c>
+      <c r="J11">
+        <v>2915.46</v>
+      </c>
+      <c r="K11">
+        <v>2990.9</v>
+      </c>
+    </row>
+    <row r="12" spans="3:11" x14ac:dyDescent="0.25">
+      <c r="C12" s="13">
+        <v>0.8</v>
+      </c>
+      <c r="D12" s="14">
+        <v>295.85000000000002</v>
+      </c>
+      <c r="F12" s="13">
+        <v>0.5</v>
+      </c>
+      <c r="G12" s="15">
+        <v>4658.5119999999997</v>
+      </c>
+    </row>
+    <row r="13" spans="3:11" x14ac:dyDescent="0.25">
+      <c r="C13" s="13">
+        <v>1</v>
+      </c>
+      <c r="D13" s="14">
+        <v>125.99</v>
+      </c>
+      <c r="F13" s="13">
+        <v>0.6</v>
+      </c>
+      <c r="G13" s="15">
+        <v>843.56</v>
+      </c>
+    </row>
+    <row r="14" spans="3:11" x14ac:dyDescent="0.25">
+      <c r="C14" s="13">
+        <v>1.2</v>
+      </c>
+      <c r="D14" s="14">
+        <v>27.55</v>
+      </c>
+      <c r="F14" s="13">
+        <v>0.7</v>
+      </c>
+      <c r="G14" s="15">
+        <v>309.11</v>
+      </c>
+    </row>
+    <row r="15" spans="3:11" x14ac:dyDescent="0.25">
+      <c r="C15" s="13">
+        <v>1.3</v>
+      </c>
+      <c r="D15" s="14">
+        <v>5.1100000000000003</v>
+      </c>
+      <c r="F15" s="13">
+        <v>0.8</v>
+      </c>
+      <c r="G15" s="15">
+        <v>146.74</v>
+      </c>
+    </row>
+    <row r="16" spans="3:11" x14ac:dyDescent="0.25">
+      <c r="C16" s="13">
+        <v>1.3759999999999999</v>
+      </c>
+      <c r="D16" s="14">
+        <v>0</v>
+      </c>
+      <c r="F16" s="13">
+        <v>0.9</v>
+      </c>
+      <c r="G16" s="15">
+        <v>65.48</v>
+      </c>
+    </row>
+    <row r="17" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="C17" s="13">
+        <v>1.4</v>
+      </c>
+      <c r="D17" s="14">
+        <v>0.53</v>
+      </c>
+      <c r="F17" s="13">
+        <v>1</v>
+      </c>
+      <c r="G17" s="15">
+        <v>18.77</v>
+      </c>
+    </row>
+    <row r="18" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="C18" s="13">
+        <v>1.5</v>
+      </c>
+      <c r="D18" s="14">
+        <v>13.81</v>
+      </c>
+      <c r="F18" s="13">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="G18" s="15">
+        <v>-6.91</v>
+      </c>
+    </row>
+    <row r="19" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="C19" s="13">
+        <v>1.8</v>
+      </c>
+      <c r="D19" s="14">
+        <v>160.77000000000001</v>
+      </c>
+      <c r="F19" s="13">
+        <v>1.2</v>
+      </c>
+      <c r="G19" s="15">
+        <v>-18.398</v>
+      </c>
+    </row>
+    <row r="20" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="C20" s="3">
+        <v>2</v>
+      </c>
+      <c r="D20" s="4">
+        <v>348.03</v>
+      </c>
+      <c r="F20" s="13">
+        <v>1.3</v>
+      </c>
+      <c r="G20" s="15">
+        <v>-20.239999999999998</v>
+      </c>
+    </row>
+    <row r="21" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="F21" s="13">
+        <v>1.4</v>
+      </c>
+      <c r="G21" s="15">
+        <v>-15.69</v>
+      </c>
+    </row>
+    <row r="22" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="F22" s="13">
+        <v>1.5</v>
+      </c>
+      <c r="G22" s="15">
+        <v>-7.14</v>
+      </c>
+    </row>
+    <row r="23" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="F23" s="13">
+        <v>1.6</v>
+      </c>
+      <c r="G23" s="15">
+        <v>3.71</v>
+      </c>
+    </row>
+    <row r="24" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="F24" s="3">
+        <v>1.7</v>
+      </c>
+      <c r="G24" s="16">
+        <v>15.67</v>
+      </c>
+    </row>
+    <row r="25" spans="3:9" ht="18" x14ac:dyDescent="0.35">
+      <c r="C25" s="1" t="s">
         <v>4</v>
       </c>
+      <c r="D25" s="2">
+        <v>1.2749999999999999</v>
+      </c>
+      <c r="I25" s="8"/>
     </row>
-    <row r="10" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C10">
-        <v>0.3</v>
-      </c>
-      <c r="D10">
-        <v>997</v>
-      </c>
-      <c r="F10">
-        <v>0.3</v>
-      </c>
-      <c r="G10">
-        <v>1867407.3</v>
-      </c>
-    </row>
-    <row r="11" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C11">
-        <v>0.5</v>
-      </c>
-      <c r="D11">
-        <v>684.56</v>
-      </c>
-      <c r="F11">
-        <v>0.4</v>
-      </c>
-      <c r="G11">
-        <v>59990.16</v>
-      </c>
-    </row>
-    <row r="12" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C12">
-        <v>0.8</v>
-      </c>
-      <c r="D12">
-        <v>295.85000000000002</v>
-      </c>
-      <c r="F12">
-        <v>0.5</v>
-      </c>
-      <c r="G12">
-        <v>4658.5119999999997</v>
-      </c>
-    </row>
-    <row r="13" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C13">
-        <v>1</v>
-      </c>
-      <c r="D13">
-        <v>125.99</v>
-      </c>
-      <c r="F13">
-        <v>0.6</v>
-      </c>
-      <c r="G13">
-        <v>843.56</v>
-      </c>
-    </row>
-    <row r="14" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C14">
-        <v>1.2</v>
-      </c>
-      <c r="D14">
-        <v>27.55</v>
-      </c>
-      <c r="F14">
-        <v>0.7</v>
-      </c>
-      <c r="G14">
-        <v>309.11</v>
-      </c>
-    </row>
-    <row r="15" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C15">
-        <v>1.3</v>
-      </c>
-      <c r="D15">
-        <v>5.1100000000000003</v>
-      </c>
-      <c r="F15">
-        <v>0.8</v>
-      </c>
-      <c r="G15">
-        <v>146.74</v>
-      </c>
-    </row>
-    <row r="16" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C16">
+    <row r="26" spans="3:9" ht="18" x14ac:dyDescent="0.35">
+      <c r="C26" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="D26" s="7">
         <v>1.3759999999999999</v>
       </c>
-      <c r="D16">
-        <v>0</v>
-      </c>
-      <c r="F16">
-        <v>0.9</v>
-      </c>
-      <c r="G16">
-        <v>65.48</v>
-      </c>
-    </row>
-    <row r="17" spans="3:14" x14ac:dyDescent="0.25">
-      <c r="C17">
-        <v>1.4</v>
-      </c>
-      <c r="D17">
-        <v>0.53</v>
-      </c>
-      <c r="F17">
-        <v>1</v>
-      </c>
-      <c r="G17">
-        <v>18.77</v>
-      </c>
-    </row>
-    <row r="18" spans="3:14" x14ac:dyDescent="0.25">
-      <c r="C18">
-        <v>1.5</v>
-      </c>
-      <c r="D18">
-        <v>13.81</v>
-      </c>
-      <c r="F18">
-        <v>1.1000000000000001</v>
-      </c>
-      <c r="G18">
-        <v>-6.91</v>
-      </c>
-    </row>
-    <row r="19" spans="3:14" x14ac:dyDescent="0.25">
-      <c r="C19">
-        <v>1.8</v>
-      </c>
-      <c r="D19">
-        <v>160.77000000000001</v>
-      </c>
-      <c r="F19">
-        <v>1.2</v>
-      </c>
-      <c r="G19">
-        <v>-18.398</v>
-      </c>
-    </row>
-    <row r="20" spans="3:14" x14ac:dyDescent="0.25">
-      <c r="C20">
-        <v>2</v>
-      </c>
-      <c r="D20">
-        <v>348.03</v>
-      </c>
-      <c r="F20">
-        <v>1.3</v>
-      </c>
-      <c r="G20">
-        <v>-20.239999999999998</v>
-      </c>
-    </row>
-    <row r="21" spans="3:14" x14ac:dyDescent="0.25">
-      <c r="F21">
-        <v>1.4</v>
-      </c>
-      <c r="G21">
-        <v>-15.69</v>
-      </c>
-    </row>
-    <row r="22" spans="3:14" x14ac:dyDescent="0.25">
-      <c r="F22">
-        <v>1.5</v>
-      </c>
-      <c r="G22">
-        <v>-7.14</v>
-      </c>
-    </row>
-    <row r="23" spans="3:14" x14ac:dyDescent="0.25">
-      <c r="F23">
-        <v>1.6</v>
-      </c>
-      <c r="G23">
-        <v>3.71</v>
-      </c>
-    </row>
-    <row r="24" spans="3:14" x14ac:dyDescent="0.25">
-      <c r="F24">
-        <v>1.7</v>
-      </c>
-      <c r="G24">
-        <v>15.67</v>
-      </c>
-    </row>
-    <row r="26" spans="3:14" x14ac:dyDescent="0.25">
-      <c r="C26" t="s">
-        <v>5</v>
-      </c>
-      <c r="D26">
-        <v>1.3759999999999999</v>
-      </c>
-      <c r="G26">
+      <c r="E26" s="7"/>
+      <c r="F26" s="7"/>
+      <c r="G26" s="6">
         <v>1.272</v>
-      </c>
-      <c r="M26" t="s">
-        <v>6</v>
-      </c>
-      <c r="N26">
-        <v>1.2749999999999999</v>
       </c>
     </row>
   </sheetData>
